--- a/instances/InstanceSpainV2.xlsx
+++ b/instances/InstanceSpainV2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
   <si>
     <t>TaskId</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>-2.450097</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>EmployeeName</t>
@@ -372,13 +375,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -388,7 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -420,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -428,22 +437,40 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -755,22 +782,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -779,22 +806,22 @@
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
+      <c r="F1" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>109</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -802,7 +829,7 @@
       <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -811,13 +838,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>111</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -825,22 +852,22 @@
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>115</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -848,7 +875,7 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -857,20 +884,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
     </row>
   </sheetData>
@@ -898,7 +925,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -915,13 +942,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>74</v>
@@ -932,16 +959,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -966,9 +993,9 @@
     <col min="1" max="1" style="2" width="12.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="12.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="11.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
@@ -999,7 +1026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1155,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1181,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1207,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -1233,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1259,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
@@ -1311,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -1337,7 +1364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
@@ -1363,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
@@ -1389,7 +1416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
@@ -1441,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
@@ -1467,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
@@ -1705,9 +1732,11 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -1715,9 +1744,9 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1725,9 +1754,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -1735,9 +1764,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1745,9 +1774,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -1755,9 +1784,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -1765,9 +1794,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
@@ -1775,9 +1804,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1785,9 +1814,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -1795,9 +1824,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -1805,9 +1834,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -1815,9 +1844,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -1825,9 +1854,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -1835,9 +1864,9 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -1845,9 +1874,9 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -1855,9 +1884,9 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -1865,9 +1894,9 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -1875,9 +1904,9 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -1885,9 +1914,9 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
@@ -1895,9 +1924,9 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -1905,9 +1934,9 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -1915,9 +1944,9 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -1925,9 +1954,9 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -1935,9 +1964,9 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -1945,9 +1974,9 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -1955,9 +1984,9 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -1965,9 +1994,9 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -1975,9 +2004,9 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -1985,9 +2014,9 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -1995,9 +2024,9 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -2005,9 +2034,9 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -2015,9 +2044,9 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -2025,9 +2054,9 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -2035,9 +2064,9 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -2045,9 +2074,9 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
@@ -2055,9 +2084,9 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
@@ -2065,9 +2094,9 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
@@ -2075,9 +2104,9 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
@@ -2085,9 +2114,9 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
@@ -2095,9 +2124,9 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
@@ -2105,9 +2134,9 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
@@ -2115,9 +2144,9 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
@@ -2125,9 +2154,9 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
@@ -2135,9 +2164,9 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
@@ -2145,9 +2174,9 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
@@ -2155,9 +2184,9 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
@@ -2165,9 +2194,9 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
@@ -2175,9 +2204,9 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
@@ -2185,9 +2214,9 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
@@ -2195,9 +2224,9 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
@@ -2205,9 +2234,9 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
@@ -2215,9 +2244,9 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
@@ -2225,9 +2254,9 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
@@ -2235,9 +2264,9 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="7"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
@@ -2245,9 +2274,9 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="7"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
@@ -2255,9 +2284,9 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
@@ -2265,9 +2294,9 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
@@ -2275,9 +2304,9 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="7"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
@@ -2285,9 +2314,9 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
@@ -2295,9 +2324,9 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
@@ -2305,9 +2334,9 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="7"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
@@ -2315,9 +2344,9 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
@@ -2325,9 +2354,9 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="7"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
@@ -2335,9 +2364,9 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="7"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
@@ -2345,9 +2374,9 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
@@ -2355,9 +2384,9 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
@@ -2365,9 +2394,9 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
@@ -2375,9 +2404,9 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="7"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
@@ -2385,9 +2414,9 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="7"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
@@ -2395,9 +2424,9 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="7"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
@@ -2405,9 +2434,9 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="7"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
@@ -2415,9 +2444,9 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="7"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
@@ -2425,9 +2454,9 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="6"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="7"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
@@ -2435,9 +2464,9 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="7"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
@@ -2445,9 +2474,9 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="6"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
@@ -2455,9 +2484,9 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="7"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
@@ -2465,9 +2494,9 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="7"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
@@ -2475,9 +2504,9 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="7"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
@@ -2485,9 +2514,9 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="6"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="7"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
@@ -2495,9 +2524,9 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="7"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
@@ -2505,9 +2534,9 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="7"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
@@ -2515,9 +2544,9 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="7"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
@@ -2525,9 +2554,9 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="6"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="7"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
@@ -2535,9 +2564,9 @@
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="6"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="7"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
@@ -2545,9 +2574,9 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="6"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="7"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
@@ -2555,9 +2584,9 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="7"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
@@ -2565,9 +2594,9 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="7"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
@@ -2575,9 +2604,9 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="3"/>
+      <c r="F116" s="7"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
@@ -2585,9 +2614,9 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="6"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="3"/>
+      <c r="F117" s="7"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
@@ -2595,9 +2624,9 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="3"/>
+      <c r="F118" s="7"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
@@ -2605,9 +2634,9 @@
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="6"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="7"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
@@ -2615,9 +2644,9 @@
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="7"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
